--- a/web_ces/indicadores/SFE-OLEO_out.xlsx
+++ b/web_ces/indicadores/SFE-OLEO_out.xlsx
@@ -27816,13 +27816,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A469D25-5102-47ED-9981-FBAB96734639}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D2BC1E8-912D-4E56-9C04-3848CA85BF0F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B49A40F-08A8-4F3B-A031-75BF66C4E67A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23A4AE42-68E4-409A-B184-CDDE363875A4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24A394A4-9113-4815-8581-76C80B003840}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E113E11-5C8C-41D6-A5D6-947343C4C758}"/>
 </file>